--- a/T41_V012_Files/T41_V012_BOMs/Source Files/T41_Display_3.3&5V_V2.00_02-06-25.xlsx
+++ b/T41_V012_Files/T41_V012_BOMs/Source Files/T41_Display_3.3&5V_V2.00_02-06-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808EF69-B957-459C-9144-EDE26B5A5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFE48F-8505-4C61-9D37-15638591024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2AA115C9-286B-49AE-860C-6BF514A3E56B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Quantity</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>TaydaElectronics.com</t>
-  </si>
-  <si>
-    <t>Price (USD)</t>
-  </si>
-  <si>
-    <t>Ext.: (USD)</t>
   </si>
   <si>
     <t>0.1uF 50V SMD 1206 Ceramic Capacitor</t>
@@ -579,7 +573,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,180 +603,136 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="G2" s="7">
-        <f>F2*A2</f>
-        <v>0.18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="G3" s="7">
-        <f>F3*A3</f>
-        <v>0.13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G4" s="7">
-        <f>F4*A4</f>
-        <v>0.14000000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G5" s="7">
-        <f>F5*A5</f>
-        <v>0.14000000000000001</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="7">
-        <f>F6*A6</f>
-        <v>0.2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5.76</v>
-      </c>
-      <c r="G7" s="7">
-        <f>F7*A7</f>
-        <v>5.76</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="7">
-        <f>F8*A8</f>
-        <v>0.3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="13">
-        <f>F9*A9</f>
-        <v>0.25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -791,10 +741,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="7">
-        <f>SUM(G3:G8)</f>
-        <v>6.67</v>
-      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
